--- a/softeare testing calculator test case.xlsx
+++ b/softeare testing calculator test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\seed Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083542E9-95BA-436B-B378-C8ECAAD4044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3399B59-4730-4C7D-9742-C2E4F2639D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{82F5D9CE-813E-4F8A-A29A-D65FE100AC4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Test Case</t>
   </si>
@@ -198,6 +198,111 @@
   </si>
   <si>
     <t xml:space="preserve"> 9999999999 + 0</t>
+  </si>
+  <si>
+    <t>(-999999999) + 1.1</t>
+  </si>
+  <si>
+    <t>(-1) + 1.1</t>
+  </si>
+  <si>
+    <t>9999999999 + (-1.1)</t>
+  </si>
+  <si>
+    <t>1 + (-9999999.9)</t>
+  </si>
+  <si>
+    <t>(-10000001)</t>
+  </si>
+  <si>
+    <t>(-999999999) + (-9999999.9)</t>
+  </si>
+  <si>
+    <t>(-1) + (-9999999.9)</t>
+  </si>
+  <si>
+    <t>(-10000000.9)</t>
+  </si>
+  <si>
+    <t>(-999999999) + (-1.1)</t>
+  </si>
+  <si>
+    <t>(-1009999998.9)</t>
+  </si>
+  <si>
+    <t>(-1000000000.1)</t>
+  </si>
+  <si>
+    <t>(-1) + (-1.1)</t>
+  </si>
+  <si>
+    <t>(-2.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (99999999.9) + 0</t>
+  </si>
+  <si>
+    <t>check by enteringith max float positive value and zero</t>
+  </si>
+  <si>
+    <t>check by entering max float negative value and zero</t>
+  </si>
+  <si>
+    <t>(-1.1) + 0</t>
+  </si>
+  <si>
+    <t>(-1.1)</t>
+  </si>
+  <si>
+    <t>Check addition with positive/negative value and alphabate</t>
+  </si>
+  <si>
+    <t>TC - 0010</t>
+  </si>
+  <si>
+    <t>TC - 0011</t>
+  </si>
+  <si>
+    <t>TC - 0012</t>
+  </si>
+  <si>
+    <t>TC - 0013</t>
+  </si>
+  <si>
+    <t>TC - 0014</t>
+  </si>
+  <si>
+    <t>TC - 0015</t>
+  </si>
+  <si>
+    <t>TC - 0016</t>
+  </si>
+  <si>
+    <t>TC - 0017</t>
+  </si>
+  <si>
+    <t>TC - 0018</t>
+  </si>
+  <si>
+    <t>TC - 0019</t>
+  </si>
+  <si>
+    <t>TC - 0020</t>
+  </si>
+  <si>
+    <t>TC - 0021</t>
+  </si>
+  <si>
+    <t>TC - 0022</t>
+  </si>
+  <si>
+    <t>TC - 0023</t>
+  </si>
+  <si>
+    <t>TC - 0024</t>
+  </si>
+  <si>
+    <t>TC - 0025</t>
   </si>
 </sst>
 </file>
@@ -606,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4421AA31-CB1B-4909-AC65-A5808A6A3630}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,6 +811,9 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>40</v>
@@ -718,6 +826,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>52</v>
@@ -734,7 +845,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
@@ -749,7 +860,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
@@ -764,7 +875,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
@@ -779,7 +890,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
@@ -801,7 +912,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -816,7 +927,10 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
@@ -827,7 +941,10 @@
         <v>10000000000.1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -838,7 +955,10 @@
         <v>100000000.90000001</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -849,44 +969,162 @@
         <v>10099999998.9</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>-999999997.89999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>9999999997.8999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
       <c r="C28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
       <c r="C29" t="s">
         <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-99999999.900000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
